--- a/Data/Solar_generation_2030.xlsx
+++ b/Data/Solar_generation_2030.xlsx
@@ -440,7 +440,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,12 +503,12 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <f>348.330026460266+22315.35501</f>
-        <v>22663.685036460265</v>
+        <f>348.330026460266+22315.35501*0.5</f>
+        <v>11506.007531460265</v>
       </c>
       <c r="C2" s="5">
-        <f>348.330026460266+22315.35501</f>
-        <v>22663.685036460265</v>
+        <f>348.330026460266+22315.35501*0.5</f>
+        <v>11506.007531460265</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -517,12 +517,12 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <f>455.648315172837+26155.3854310379</f>
-        <v>26611.033746210735</v>
-      </c>
-      <c r="G2" s="3">
-        <f>455.648315172837+26155.3854310379</f>
-        <v>26611.033746210735</v>
+        <f>455.648315172837+26155.3854310379*0.5</f>
+        <v>13533.341030691787</v>
+      </c>
+      <c r="G2" s="5">
+        <f>455.648315172837+26155.3854310379*0.5</f>
+        <v>13533.341030691787</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -531,12 +531,12 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <f>24585.912669667+444.130866979328</f>
-        <v>25030.043536646328</v>
-      </c>
-      <c r="K2" s="4">
-        <f>24585.912669667+444.130866979328</f>
-        <v>25030.043536646328</v>
+        <f>24585.912669667*0.5+444.130866979328</f>
+        <v>12737.087201812828</v>
+      </c>
+      <c r="K2" s="5">
+        <f>24585.912669667*0.5+444.130866979328</f>
+        <v>12737.087201812828</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -545,12 +545,12 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <f>342.206360212005+21000.9390775119</f>
-        <v>21343.145437723902</v>
+        <f>342.206360212005+21000.9390775119*0.5</f>
+        <v>10842.675898967955</v>
       </c>
       <c r="O2" s="5">
-        <f>342.206360212005+21000.9390775119</f>
-        <v>21343.145437723902</v>
+        <f>342.206360212005+21000.9390775119*0.5</f>
+        <v>10842.675898967955</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -564,12 +564,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5">
-        <f t="shared" ref="B3:C4" si="0">348.330026460266+22315.35501</f>
-        <v>22663.685036460265</v>
+        <v>348.33002646026569</v>
       </c>
       <c r="C3" s="5">
-        <f t="shared" si="0"/>
-        <v>22663.685036460265</v>
+        <v>348.33002646026569</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -577,13 +575,11 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" s="3">
-        <f t="shared" ref="F3:G4" si="1">455.648315172837+26155.3854310379</f>
-        <v>26611.033746210735</v>
-      </c>
-      <c r="G3" s="3">
-        <f t="shared" si="1"/>
-        <v>26611.033746210735</v>
+      <c r="F3" s="5">
+        <v>455.6483151728375</v>
+      </c>
+      <c r="G3" s="5">
+        <v>455.6483151728375</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -591,13 +587,11 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3" s="4">
-        <f t="shared" ref="J3:K4" si="2">24585.912669667+444.130866979328</f>
-        <v>25030.043536646328</v>
-      </c>
-      <c r="K3" s="4">
-        <f t="shared" si="2"/>
-        <v>25030.043536646328</v>
+      <c r="J3" s="5">
+        <v>444.13086697932829</v>
+      </c>
+      <c r="K3" s="5">
+        <v>444.13086697932829</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -606,12 +600,10 @@
         <v>0</v>
       </c>
       <c r="N3" s="5">
-        <f t="shared" ref="N3:O4" si="3">342.206360212005+21000.9390775119</f>
-        <v>21343.145437723902</v>
+        <v>342.20636021200539</v>
       </c>
       <c r="O3" s="5">
-        <f t="shared" si="3"/>
-        <v>21343.145437723902</v>
+        <v>342.20636021200539</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -625,12 +617,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5">
-        <f t="shared" si="0"/>
-        <v>22663.685036460265</v>
+        <v>348.33002646026569</v>
       </c>
       <c r="C4" s="5">
-        <f t="shared" si="0"/>
-        <v>22663.685036460265</v>
+        <v>348.33002646026569</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -638,13 +628,11 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" s="3">
-        <f t="shared" si="1"/>
-        <v>26611.033746210735</v>
-      </c>
-      <c r="G4" s="3">
-        <f t="shared" si="1"/>
-        <v>26611.033746210735</v>
+      <c r="F4" s="5">
+        <v>455.6483151728375</v>
+      </c>
+      <c r="G4" s="5">
+        <v>455.6483151728375</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -652,13 +640,11 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4" s="4">
-        <f t="shared" si="2"/>
-        <v>25030.043536646328</v>
-      </c>
-      <c r="K4" s="4">
-        <f t="shared" si="2"/>
-        <v>25030.043536646328</v>
+      <c r="J4" s="5">
+        <v>444.13086697932829</v>
+      </c>
+      <c r="K4" s="5">
+        <v>444.13086697932829</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -667,12 +653,10 @@
         <v>0</v>
       </c>
       <c r="N4" s="5">
-        <f t="shared" si="3"/>
-        <v>21343.145437723902</v>
+        <v>342.20636021200539</v>
       </c>
       <c r="O4" s="5">
-        <f t="shared" si="3"/>
-        <v>21343.145437723902</v>
+        <v>342.20636021200539</v>
       </c>
       <c r="P4">
         <v>0</v>
